--- a/AAII_Financials/Quarterly/HYBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HYBT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>HYBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -766,17 +773,23 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -784,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,11 +852,11 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,17 +1093,23 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,31 +1123,33 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -1107,17 +1160,23 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>4</v>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1128,19 +1187,19 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -1151,17 +1210,23 @@
       <c r="M18" s="3">
         <v>0</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1213,17 +1280,23 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1339,14 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,31 +1389,37 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1349,13 +1434,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,31 +1539,37 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -1481,36 +1584,42 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -1525,13 +1634,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1741,40 +1880,46 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -1789,13 +1934,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,31 +1989,37 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -1877,62 +2034,74 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,37 +2138,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
+      <c r="K41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2011,8 +2184,14 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,16 +2234,22 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2072,20 +2257,20 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2099,25 +2284,31 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>400</v>
+      </c>
+      <c r="F44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -2125,11 +2316,11 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2143,23 +2334,29 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2169,11 +2366,11 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2187,37 +2384,43 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
+      <c r="K46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
@@ -2231,8 +2434,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,19 +2484,25 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>200</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+      <c r="E48" s="3">
+        <v>200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>200</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
@@ -2301,11 +2516,11 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2493,10 +2732,16 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,29 +2784,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>900</v>
+      </c>
+      <c r="F54" s="3">
         <v>1100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -2581,10 +2832,16 @@
         <v>0</v>
       </c>
       <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,25 +2878,27 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>100</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -2648,11 +2909,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
@@ -2663,8 +2924,14 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,43 +2974,49 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
@@ -2751,43 +3024,49 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
+      <c r="N60" s="3">
+        <v>0</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>4</v>
@@ -2795,8 +3074,14 @@
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,19 +3124,25 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -2865,11 +3156,11 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2881,10 +3172,16 @@
         <v>0</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,41 +3324,47 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>100</v>
       </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
       <c r="N66" s="3">
         <v>0</v>
       </c>
@@ -3057,10 +3372,16 @@
         <v>0</v>
       </c>
       <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,40 +3594,46 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-18800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-18600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-18500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-18400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-18300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-18200</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-18200</v>
       </c>
       <c r="K72" s="3">
         <v>-18200</v>
       </c>
       <c r="L72" s="3">
-        <v>-18100</v>
+        <v>-18200</v>
       </c>
       <c r="M72" s="3">
-        <v>-18100</v>
+        <v>-18200</v>
       </c>
       <c r="N72" s="3">
         <v>-18100</v>
@@ -3295,10 +3642,16 @@
         <v>-18100</v>
       </c>
       <c r="P72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="R72" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,40 +3794,46 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-100</v>
-      </c>
       <c r="L76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N76" s="3">
         <v>0</v>
@@ -3471,10 +3842,16 @@
         <v>0</v>
       </c>
       <c r="P76" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,80 +3894,92 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -3605,13 +3994,19 @@
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,31 +4319,37 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-300</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3931,13 +4364,19 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,31 +4809,37 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4382,11 +4879,11 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
@@ -4394,11 +4891,11 @@
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4412,26 +4909,32 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -4451,9 +4954,15 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HYBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HYBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>HYBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -747,11 +751,11 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
@@ -779,8 +783,8 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
+      <c r="P8" s="3">
+        <v>0</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
@@ -788,8 +792,11 @@
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,19 +804,19 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -858,8 +868,8 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1099,8 +1122,8 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1134,16 +1161,16 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
@@ -1152,7 +1179,7 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -1166,8 +1193,8 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>4</v>
+      <c r="P17" s="3">
+        <v>0</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>4</v>
@@ -1175,8 +1202,11 @@
       <c r="R17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,7 +1214,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
@@ -1193,7 +1223,7 @@
         <v>-200</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
@@ -1202,7 +1232,7 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -1216,8 +1246,8 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
+      <c r="P18" s="3">
+        <v>0</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1286,8 +1320,8 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1407,22 +1450,22 @@
         <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
@@ -1440,13 +1483,16 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1557,22 +1609,22 @@
         <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -1590,13 +1642,16 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1607,22 +1662,22 @@
         <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -1640,13 +1695,16 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1886,8 +1956,8 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
@@ -1895,8 +1965,11 @@
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1907,22 +1980,22 @@
         <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -1940,13 +2013,16 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2007,22 +2086,22 @@
         <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -2040,68 +2119,74 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2149,22 +2236,22 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
@@ -2172,8 +2259,8 @@
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,19 +2330,22 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2263,8 +2356,8 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -2272,8 +2365,8 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2299,19 +2395,19 @@
         <v>500</v>
       </c>
       <c r="E44" s="3">
+        <v>500</v>
+      </c>
+      <c r="F44" s="3">
         <v>400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -2322,8 +2418,8 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2352,13 +2451,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3">
+        <v>100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -2372,8 +2471,8 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2390,31 +2489,34 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E46" s="3">
         <v>600</v>
       </c>
       <c r="F46" s="3">
+        <v>600</v>
+      </c>
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
-      </c>
-      <c r="H46" s="3">
-        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
+      <c r="J46" s="3">
+        <v>100</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>4</v>
@@ -2422,8 +2524,8 @@
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
+      <c r="M46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2504,8 +2612,8 @@
       <c r="F48" s="3">
         <v>200</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
+      <c r="G48" s="3">
+        <v>200</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
@@ -2522,8 +2630,8 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2738,10 +2858,13 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,31 +2913,34 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
         <v>800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
@@ -2838,10 +2964,13 @@
         <v>0</v>
       </c>
       <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2889,19 +3020,19 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -2915,8 +3046,8 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2989,37 +3126,37 @@
         <v>1500</v>
       </c>
       <c r="E59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3039,37 +3179,37 @@
         <v>1500</v>
       </c>
       <c r="E60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
       </c>
       <c r="N60" s="3">
-        <v>0</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>4</v>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3139,14 +3285,14 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3162,8 +3308,8 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3178,10 +3324,13 @@
         <v>0</v>
       </c>
       <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3342,31 +3500,31 @@
         <v>1600</v>
       </c>
       <c r="F66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G66" s="3">
         <v>1700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>100</v>
       </c>
       <c r="M66" s="3">
         <v>100</v>
       </c>
       <c r="N66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O66" s="3">
         <v>0</v>
@@ -3378,10 +3536,13 @@
         <v>0</v>
       </c>
       <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,34 +3771,37 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-19000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-18900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-18600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-18400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-18300</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-18200</v>
       </c>
       <c r="L72" s="3">
         <v>-18200</v>
@@ -3636,7 +3810,7 @@
         <v>-18200</v>
       </c>
       <c r="N72" s="3">
-        <v>-18100</v>
+        <v>-18200</v>
       </c>
       <c r="O72" s="3">
         <v>-18100</v>
@@ -3648,10 +3822,13 @@
         <v>-18100</v>
       </c>
       <c r="R72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="S72" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,43 +3983,46 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
-        <v>-100</v>
-      </c>
       <c r="M76" s="3">
         <v>-100</v>
       </c>
       <c r="N76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O76" s="3">
         <v>0</v>
@@ -3848,10 +4034,13 @@
         <v>0</v>
       </c>
       <c r="R76" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3967,22 +4162,22 @@
         <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
@@ -4000,13 +4195,16 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,26 +4539,29 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
@@ -4352,7 +4569,7 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4370,13 +4587,16 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4824,16 +5070,16 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
@@ -4842,7 +5088,7 @@
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4885,8 +5134,8 @@
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>4</v>
@@ -4897,8 +5146,8 @@
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -4915,28 +5164,31 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
-      </c>
-      <c r="G102" s="3">
-        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>100</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -4960,9 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HYBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HYBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>HYBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,11 +758,11 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -786,8 +790,8 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
+      <c r="Q8" s="3">
+        <v>0</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>4</v>
@@ -795,8 +799,11 @@
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -871,8 +881,8 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1125,8 +1148,8 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1164,16 +1191,16 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
@@ -1182,7 +1209,7 @@
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -1196,8 +1223,8 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>4</v>
+      <c r="Q17" s="3">
+        <v>0</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>4</v>
@@ -1205,8 +1232,11 @@
       <c r="S17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,7 +1247,7 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
@@ -1226,7 +1256,7 @@
         <v>-200</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
@@ -1235,7 +1265,7 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -1249,8 +1279,8 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
+      <c r="Q18" s="3">
+        <v>0</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>4</v>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1323,8 +1357,8 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>4</v>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1453,22 +1496,22 @@
         <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
@@ -1486,13 +1529,16 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1612,22 +1664,22 @@
         <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -1645,13 +1697,16 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1665,22 +1720,22 @@
         <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
@@ -1698,13 +1753,16 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1959,8 +2029,8 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>4</v>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1983,22 +2056,22 @@
         <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
@@ -2016,13 +2089,16 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2089,22 +2168,22 @@
         <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
@@ -2122,71 +2201,77 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2239,22 +2326,22 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
@@ -2262,8 +2349,8 @@
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,22 +2423,25 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2359,8 +2452,8 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -2368,8 +2461,8 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2398,19 +2494,19 @@
         <v>500</v>
       </c>
       <c r="F44" s="3">
+        <v>500</v>
+      </c>
+      <c r="G44" s="3">
         <v>400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
@@ -2421,8 +2517,8 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2454,13 +2553,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3">
+        <v>100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -2474,8 +2573,8 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2492,34 +2591,37 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
-      </c>
-      <c r="E46" s="3">
-        <v>600</v>
       </c>
       <c r="F46" s="3">
         <v>600</v>
       </c>
       <c r="G46" s="3">
+        <v>600</v>
+      </c>
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
+      <c r="K46" s="3">
+        <v>100</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>4</v>
@@ -2527,8 +2629,8 @@
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
+      <c r="N46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,13 +2703,16 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -2615,8 +2723,8 @@
       <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="H48" s="3">
+        <v>200</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
@@ -2633,8 +2741,8 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2861,10 +2981,13 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2925,25 +3051,25 @@
         <v>700</v>
       </c>
       <c r="E54" s="3">
+        <v>700</v>
+      </c>
+      <c r="F54" s="3">
         <v>800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
       </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
         <v>0</v>
@@ -2967,10 +3093,13 @@
         <v>0</v>
       </c>
       <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3023,19 +3154,19 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3049,8 +3180,8 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
+      <c r="O57" s="3">
+        <v>0</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,49 +3251,52 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="E59" s="3">
         <v>1500</v>
       </c>
       <c r="F59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
@@ -3170,49 +3307,52 @@
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="E60" s="3">
         <v>1500</v>
       </c>
       <c r="F60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>4</v>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3288,14 +3434,14 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3311,8 +3457,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3327,10 +3473,13 @@
         <v>0</v>
       </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,13 +3643,16 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E66" s="3">
         <v>1600</v>
@@ -3503,31 +3661,31 @@
         <v>1600</v>
       </c>
       <c r="G66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>100</v>
       </c>
       <c r="N66" s="3">
         <v>100</v>
       </c>
       <c r="O66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P66" s="3">
         <v>0</v>
@@ -3539,10 +3697,13 @@
         <v>0</v>
       </c>
       <c r="S66" s="3">
+        <v>0</v>
+      </c>
+      <c r="T66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,37 +3945,40 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-19100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-19000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-18800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-18500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-18400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-18200</v>
       </c>
       <c r="M72" s="3">
         <v>-18200</v>
@@ -3813,7 +3987,7 @@
         <v>-18200</v>
       </c>
       <c r="O72" s="3">
-        <v>-18100</v>
+        <v>-18200</v>
       </c>
       <c r="P72" s="3">
         <v>-18100</v>
@@ -3825,10 +3999,13 @@
         <v>-18100</v>
       </c>
       <c r="S72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="T72" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,46 +4169,49 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3">
-        <v>-100</v>
-      </c>
       <c r="N76" s="3">
         <v>-100</v>
       </c>
       <c r="O76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P76" s="3">
         <v>0</v>
@@ -4037,10 +4223,13 @@
         <v>0</v>
       </c>
       <c r="S76" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4165,22 +4360,22 @@
         <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
@@ -4198,13 +4393,16 @@
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4551,20 +4768,20 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
@@ -4572,7 +4789,7 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4590,13 +4807,16 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5073,16 +5319,16 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
@@ -5091,7 +5337,7 @@
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5137,8 +5386,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
@@ -5149,8 +5398,8 @@
       <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5176,22 +5428,22 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
-      </c>
-      <c r="H102" s="3">
-        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -5215,9 +5467,12 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HYBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HYBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>HYBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,7 +665,7 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -678,76 +678,91 @@
     <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,26 +770,26 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>200</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -793,17 +808,29 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -813,8 +840,8 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -828,17 +855,17 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -858,8 +885,20 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,13 +906,13 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -884,17 +923,17 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -914,8 +953,20 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +987,12 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1047,20 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,31 +1115,43 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1104,8 +1183,20 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1151,17 +1242,29 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1282,12 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1194,49 +1301,61 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1363,67 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1444,12 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1360,17 +1495,29 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1572,20 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,49 +1640,61 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
@@ -1532,13 +1703,25 @@
         <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>100</v>
       </c>
-      <c r="T23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1776,20 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,49 +1844,61 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
@@ -1700,54 +1907,66 @@
         <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
@@ -1756,13 +1975,25 @@
         <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +2048,20 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +2116,20 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2184,20 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2252,20 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2032,58 +2311,70 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
@@ -2092,13 +2383,25 @@
         <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,49 +2456,61 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
@@ -2204,74 +2519,98 @@
         <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2631,12 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2657,12 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2329,40 +2676,40 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2370,8 +2717,20 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,16 +2785,28 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -2444,37 +2815,37 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2482,55 +2853,67 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
         <v>500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="I44" s="3">
         <v>500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="J44" s="3">
         <v>500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="K44" s="3">
         <v>400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="L44" s="3">
         <v>300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2538,8 +2921,20 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2556,37 +2951,37 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2594,55 +2989,67 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3">
-        <v>0</v>
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
@@ -2650,8 +3057,20 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,55 +3125,67 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>100</v>
+      </c>
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -2762,8 +3193,20 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3261,20 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3329,20 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3397,20 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2984,10 +3463,22 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,47 +3533,59 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>200</v>
+      </c>
+      <c r="H54" s="3">
         <v>700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="J54" s="3">
         <v>800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="K54" s="3">
         <v>900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>1100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
@@ -3096,10 +3599,22 @@
         <v>0</v>
       </c>
       <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3635,12 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3661,12 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3157,49 +3680,61 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,120 +3789,156 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="S60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,37 +3993,49 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
-      </c>
-      <c r="E62" s="3">
-        <v>100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>200</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="3">
+        <v>200</v>
+      </c>
+      <c r="L62" s="3">
+        <v>100</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -3460,26 +4043,38 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
       <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +4129,20 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +4197,20 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +4265,20 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3655,10 +4286,10 @@
         <v>1700</v>
       </c>
       <c r="E66" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F66" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G66" s="3">
         <v>1600</v>
@@ -3667,43 +4298,55 @@
         <v>1700</v>
       </c>
       <c r="I66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="R66" s="3">
         <v>100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="S66" s="3">
         <v>100</v>
       </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>0</v>
-      </c>
-      <c r="R66" s="3">
-        <v>0</v>
-      </c>
-      <c r="S66" s="3">
-        <v>0</v>
-      </c>
       <c r="T66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+      <c r="X66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4367,12 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4427,20 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4495,20 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4563,20 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4631,88 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="H72" s="3">
         <v>-19200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="I72" s="3">
         <v>-19100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="J72" s="3">
         <v>-19000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="K72" s="3">
         <v>-18900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>-18800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>-18600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>-18500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>-18400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>-18300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="Q72" s="3">
         <v>-18200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="R72" s="3">
         <v>-18200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="S72" s="3">
         <v>-18200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="T72" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="U72" s="3">
         <v>-18100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="V72" s="3">
         <v>-18100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="W72" s="3">
         <v>-18100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="X72" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4767,20 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4835,20 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4903,88 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H76" s="3">
         <v>-1000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="I76" s="3">
         <v>-900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="J76" s="3">
         <v>-800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="K76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-500</v>
       </c>
       <c r="M76" s="3">
         <v>-400</v>
       </c>
       <c r="N76" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="O76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="Q76" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="R76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T76" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,110 +5039,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
@@ -4396,13 +5175,25 @@
         <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +5214,12 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +5274,20 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +5342,20 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5410,20 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5478,20 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5546,20 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5614,20 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4774,34 +5641,34 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -4810,13 +5677,25 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5716,12 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5776,20 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5844,20 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5912,20 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5980,20 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +6014,12 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +6074,20 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +6142,20 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +6210,20 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +6278,20 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5319,38 +6302,38 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5363,8 +6346,20 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5378,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -5389,29 +6384,29 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -5419,8 +6414,20 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5431,32 +6438,32 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5470,9 +6477,21 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HYBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HYBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
   <si>
     <t>HYBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,112 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
-        <v>44196</v>
-      </c>
-      <c r="H7" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,32 +778,32 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -820,58 +828,64 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
       </c>
       <c r="X8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>100</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
@@ -897,8 +911,14 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -906,22 +926,22 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -935,11 +955,11 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
@@ -965,8 +985,14 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1017,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1087,14 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1161,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1142,7 +1182,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1153,11 +1193,11 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1195,8 +1235,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1254,17 +1300,23 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>4</v>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,55 +1338,57 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>0</v>
@@ -1345,17 +1399,23 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>4</v>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
       </c>
       <c r="X17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,16 +1423,16 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
@@ -1381,28 +1441,28 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
@@ -1413,17 +1473,23 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
       </c>
       <c r="X18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1514,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1507,25 +1575,31 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-100</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1584,8 +1658,14 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,8 +1732,14 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1661,16 +1747,16 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
@@ -1682,25 +1768,25 @@
         <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
@@ -1715,13 +1801,19 @@
         <v>0</v>
       </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>100</v>
       </c>
-      <c r="X23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1880,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1954,14 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1865,16 +1969,16 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
@@ -1886,25 +1990,25 @@
         <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
@@ -1919,13 +2023,19 @@
         <v>0</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>100</v>
       </c>
-      <c r="X26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1933,16 +2043,16 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
@@ -1954,25 +2064,25 @@
         <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
@@ -1987,13 +2097,19 @@
         <v>0</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>100</v>
       </c>
-      <c r="X27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2250,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2398,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2323,17 +2463,23 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
       </c>
       <c r="X32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2341,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
@@ -2362,25 +2508,25 @@
         <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
@@ -2395,13 +2541,19 @@
         <v>0</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>100</v>
       </c>
-      <c r="X33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2620,14 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2477,16 +2635,16 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
@@ -2498,25 +2656,25 @@
         <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
@@ -2531,86 +2689,98 @@
         <v>0</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>100</v>
       </c>
-      <c r="X35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="H38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
-        <v>44196</v>
-      </c>
-      <c r="H38" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2833,10 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2688,34 +2862,34 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
+      <c r="Q41" s="3">
+        <v>0</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
@@ -2729,8 +2903,14 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2977,14 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2806,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2818,19 +3004,19 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2838,20 +3024,20 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -2865,8 +3051,14 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2879,35 +3071,35 @@
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
         <v>500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>500</v>
       </c>
-      <c r="J44" s="3">
-        <v>500</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>200</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
+      <c r="P44" s="3">
+        <v>0</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
@@ -2915,11 +3107,11 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -2933,8 +3125,14 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2963,17 +3161,17 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2983,11 +3181,11 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3001,8 +3199,14 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3010,52 +3214,52 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
+        <v>500</v>
+      </c>
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
-        <v>500</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
-        <v>600</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3">
-        <v>0</v>
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U46" s="3">
         <v>0</v>
@@ -3069,8 +3273,14 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3347,14 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3146,10 +3362,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -3158,10 +3374,10 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
@@ -3169,11 +3385,11 @@
       <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>200</v>
+      </c>
+      <c r="N48" s="3">
+        <v>200</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -3187,11 +3403,11 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3205,8 +3421,14 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3495,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3643,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3475,10 +3715,16 @@
         <v>0</v>
       </c>
       <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,53 +3791,59 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>100</v>
+      </c>
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
       </c>
-      <c r="I54" s="3">
-        <v>700</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
@@ -3611,10 +3863,16 @@
         <v>0</v>
       </c>
       <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3925,10 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3692,22 +3954,22 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3718,11 +3980,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>4</v>
@@ -3733,8 +3995,14 @@
       <c r="X57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,67 +4069,73 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E59" s="3">
         <v>1900</v>
       </c>
       <c r="F59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>4</v>
@@ -3869,67 +4143,73 @@
       <c r="X59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E60" s="3">
         <v>1900</v>
       </c>
       <c r="F60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>100</v>
       </c>
-      <c r="T60" s="3">
-        <v>0</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V60" s="3" t="s">
-        <v>4</v>
+      <c r="V60" s="3">
+        <v>0</v>
       </c>
       <c r="W60" s="3" t="s">
         <v>4</v>
@@ -3937,8 +4217,14 @@
       <c r="X60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4291,14 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4016,32 +4308,32 @@
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>200</v>
+      </c>
+      <c r="N62" s="3">
+        <v>100</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -4055,11 +4347,11 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4071,10 +4363,16 @@
         <v>0</v>
       </c>
       <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,13 +4587,19 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E66" s="3">
         <v>1700</v>
@@ -4292,13 +4608,13 @@
         <v>1700</v>
       </c>
       <c r="G66" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H66" s="3">
         <v>1700</v>
       </c>
       <c r="I66" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="J66" s="3">
         <v>1600</v>
@@ -4307,35 +4623,35 @@
         <v>1600</v>
       </c>
       <c r="L66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>100</v>
       </c>
-      <c r="T66" s="3">
-        <v>0</v>
-      </c>
-      <c r="U66" s="3">
-        <v>0</v>
-      </c>
       <c r="V66" s="3">
         <v>0</v>
       </c>
@@ -4343,10 +4659,16 @@
         <v>0</v>
       </c>
       <c r="X66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,64 +4985,70 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-19700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-19600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="I72" s="3">
         <v>-19500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-19500</v>
       </c>
-      <c r="H72" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-19100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-19000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-18900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-18800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-18600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-18500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-18400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-18300</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-18200</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-18200</v>
       </c>
       <c r="S72" s="3">
         <v>-18200</v>
       </c>
       <c r="T72" s="3">
-        <v>-18100</v>
+        <v>-18200</v>
       </c>
       <c r="U72" s="3">
-        <v>-18100</v>
+        <v>-18200</v>
       </c>
       <c r="V72" s="3">
         <v>-18100</v>
@@ -4709,10 +5057,16 @@
         <v>-18100</v>
       </c>
       <c r="X72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,64 +5281,70 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H76" s="3">
         <v>-1500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-1500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-1400</v>
       </c>
-      <c r="H76" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-400</v>
       </c>
-      <c r="R76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-100</v>
-      </c>
       <c r="T76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V76" s="3">
         <v>0</v>
@@ -4981,10 +5353,16 @@
         <v>0</v>
       </c>
       <c r="X76" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5429,93 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="H80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
-        <v>44196</v>
-      </c>
-      <c r="H80" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5133,16 +5523,16 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
@@ -5154,25 +5544,25 @@
         <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>0</v>
@@ -5187,13 +5577,19 @@
         <v>0</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>100</v>
       </c>
-      <c r="X81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5614,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5684,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,55 +6054,61 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-300</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -5689,13 +6123,19 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6160,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6230,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6378,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6452,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6776,14 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6302,43 +6794,43 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -6358,13 +6850,19 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -6373,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -6396,11 +6894,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>4</v>
@@ -6408,11 +6906,11 @@
       <c r="R101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
@@ -6426,8 +6924,14 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6450,26 +6954,26 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -6489,9 +6993,15 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HYBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HYBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
   <si>
     <t>HYBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,119 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -790,26 +797,26 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
@@ -834,28 +841,34 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>4</v>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -866,32 +879,32 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
@@ -917,8 +930,14 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -928,8 +947,8 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -938,16 +957,16 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -961,11 +980,11 @@
       <c r="P10" s="3">
         <v>0</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
@@ -991,8 +1010,14 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1044,10 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1120,14 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1200,14 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1181,14 +1220,14 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -1199,11 +1238,11 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1241,8 +1280,14 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1306,17 +1351,23 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>4</v>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,61 +1391,63 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U17" s="3">
         <v>0</v>
@@ -1405,17 +1458,23 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>4</v>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
       </c>
       <c r="Z17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1426,19 +1485,19 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
@@ -1447,28 +1506,28 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
       </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U18" s="3">
         <v>0</v>
@@ -1479,17 +1538,23 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>4</v>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
       </c>
       <c r="Z18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1581,10 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1525,7 +1592,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1581,17 +1648,23 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>4</v>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1601,11 +1674,11 @@
       <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
@@ -1664,8 +1737,14 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,31 +1817,37 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1774,25 +1859,25 @@
         <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>0</v>
@@ -1807,13 +1892,19 @@
         <v>0</v>
       </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>100</v>
       </c>
-      <c r="Z23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1886,8 +1977,14 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,31 +2057,37 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
@@ -1996,25 +2099,25 @@
         <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>0</v>
@@ -2029,36 +2132,42 @@
         <v>0</v>
       </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>100</v>
       </c>
-      <c r="Z26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
@@ -2070,25 +2179,25 @@
         <v>-100</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>0</v>
@@ -2103,13 +2212,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>100</v>
       </c>
-      <c r="Z27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2297,14 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2377,14 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2457,14 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2537,14 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2413,7 +2552,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2469,40 +2608,46 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y32" s="3" t="s">
-        <v>4</v>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
       </c>
       <c r="Z32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
@@ -2514,25 +2659,25 @@
         <v>-100</v>
       </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>0</v>
@@ -2547,13 +2692,19 @@
         <v>0</v>
       </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>100</v>
       </c>
-      <c r="Z33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,31 +2777,37 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
@@ -2662,25 +2819,25 @@
         <v>-100</v>
       </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>0</v>
@@ -2695,92 +2852,104 @@
         <v>0</v>
       </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>100</v>
       </c>
-      <c r="Z35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2976,10 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,8 +3006,10 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2868,34 +3041,34 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
+      <c r="S41" s="3">
+        <v>0</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3">
-        <v>0</v>
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
@@ -2909,8 +3082,14 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,8 +3162,14 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2998,10 +3183,10 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -3010,19 +3195,19 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -3030,20 +3215,20 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -3057,55 +3242,61 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <v>500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>200</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
+      <c r="R44" s="3">
+        <v>0</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>4</v>
@@ -3113,11 +3304,11 @@
       <c r="T44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
-      </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
@@ -3131,8 +3322,14 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3167,17 +3364,17 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3187,11 +3384,11 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3205,13 +3402,19 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -3220,10 +3423,10 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
@@ -3232,40 +3435,40 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
-      <c r="V46" s="3">
-        <v>0</v>
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W46" s="3">
         <v>0</v>
@@ -3279,8 +3482,14 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,13 +3562,19 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -3368,10 +3583,10 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -3380,10 +3595,10 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
@@ -3391,11 +3606,11 @@
       <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>200</v>
+      </c>
+      <c r="P48" s="3">
+        <v>200</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
@@ -3409,11 +3624,11 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3427,8 +3642,14 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3501,8 +3722,14 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3802,14 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,31 +3882,37 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3721,10 +3960,16 @@
         <v>0</v>
       </c>
       <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,59 +4042,65 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
         <v>100</v>
       </c>
       <c r="H54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>200</v>
       </c>
       <c r="K54" s="3">
+        <v>200</v>
+      </c>
+      <c r="L54" s="3">
+        <v>200</v>
+      </c>
+      <c r="M54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>100</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
       <c r="T54" s="3">
         <v>0</v>
       </c>
@@ -3869,10 +4120,16 @@
         <v>0</v>
       </c>
       <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4156,10 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,8 +4186,10 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3960,22 +4221,22 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -3986,11 +4247,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
       </c>
       <c r="X57" s="3" t="s">
         <v>4</v>
@@ -4001,8 +4262,14 @@
       <c r="Z57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4075,19 +4342,25 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1800</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1900</v>
       </c>
       <c r="G59" s="3">
         <v>1900</v>
@@ -4096,52 +4369,52 @@
         <v>1900</v>
       </c>
       <c r="I59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
       </c>
       <c r="Y59" s="3" t="s">
         <v>4</v>
@@ -4149,19 +4422,25 @@
       <c r="Z59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1800</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1900</v>
       </c>
       <c r="G60" s="3">
         <v>1900</v>
@@ -4170,52 +4449,52 @@
         <v>1900</v>
       </c>
       <c r="I60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>100</v>
       </c>
-      <c r="V60" s="3">
-        <v>0</v>
-      </c>
-      <c r="W60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X60" s="3" t="s">
-        <v>4</v>
+      <c r="X60" s="3">
+        <v>0</v>
       </c>
       <c r="Y60" s="3" t="s">
         <v>4</v>
@@ -4223,8 +4502,14 @@
       <c r="Z60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4297,16 +4582,22 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
@@ -4314,32 +4605,32 @@
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
       </c>
       <c r="M62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>200</v>
+      </c>
+      <c r="P62" s="3">
+        <v>100</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -4353,11 +4644,11 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4369,10 +4660,16 @@
         <v>0</v>
       </c>
       <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4742,14 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4822,14 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,19 +4902,25 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F66" s="3">
         <v>1600</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1700</v>
       </c>
       <c r="G66" s="3">
         <v>1700</v>
@@ -4617,10 +4932,10 @@
         <v>1700</v>
       </c>
       <c r="J66" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K66" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="L66" s="3">
         <v>1600</v>
@@ -4629,35 +4944,35 @@
         <v>1600</v>
       </c>
       <c r="N66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>100</v>
       </c>
-      <c r="V66" s="3">
-        <v>0</v>
-      </c>
-      <c r="W66" s="3">
-        <v>0</v>
-      </c>
       <c r="X66" s="3">
         <v>0</v>
       </c>
@@ -4665,10 +4980,16 @@
         <v>0</v>
       </c>
       <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +5016,10 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +5092,14 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5172,14 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5252,14 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,70 +5332,76 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-19800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-19800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-19700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-19600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-19600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-19500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-19500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-19100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-19000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-18900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-18800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-18600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-18500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-18400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-18300</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-18200</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-18200</v>
       </c>
       <c r="U72" s="3">
         <v>-18200</v>
       </c>
       <c r="V72" s="3">
-        <v>-18100</v>
+        <v>-18200</v>
       </c>
       <c r="W72" s="3">
-        <v>-18100</v>
+        <v>-18200</v>
       </c>
       <c r="X72" s="3">
         <v>-18100</v>
@@ -5063,10 +5410,16 @@
         <v>-18100</v>
       </c>
       <c r="Z72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5492,14 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5572,14 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,70 +5652,76 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-400</v>
       </c>
-      <c r="T76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-100</v>
-      </c>
       <c r="V76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X76" s="3">
         <v>0</v>
@@ -5359,10 +5730,16 @@
         <v>0</v>
       </c>
       <c r="Z76" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,110 +5812,122 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
@@ -5550,25 +5939,25 @@
         <v>-100</v>
       </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>0</v>
@@ -5583,13 +5972,19 @@
         <v>0</v>
       </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>100</v>
       </c>
-      <c r="Z81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +6011,10 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5690,8 +6087,14 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +6167,14 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6247,14 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6327,14 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6407,14 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,19 +6487,25 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -6081,40 +6514,40 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-300</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
@@ -6129,13 +6562,19 @@
         <v>0</v>
       </c>
       <c r="Y89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6601,10 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6236,8 +6677,14 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6757,14 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,8 +6837,14 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6458,8 +6917,14 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6951,10 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +7027,14 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +7107,14 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +7187,14 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,16 +7267,22 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -6803,40 +7294,40 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
-      </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -6856,20 +7347,26 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -6900,11 +7397,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>4</v>
@@ -6912,11 +7409,11 @@
       <c r="T101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-      <c r="V101" s="3">
-        <v>0</v>
+      <c r="U101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
@@ -6930,8 +7427,14 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6960,26 +7463,26 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -6999,9 +7502,15 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HYBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HYBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>HYBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,123 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -803,11 +807,11 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -815,11 +819,11 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -847,8 +851,8 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>4</v>
+      <c r="Z8" s="3">
+        <v>0</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>4</v>
@@ -856,8 +860,11 @@
       <c r="AB8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,11 +874,11 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -885,29 +892,29 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -947,11 +957,11 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -963,13 +973,13 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -986,8 +996,8 @@
       <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
+      <c r="S10" s="3">
+        <v>0</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1226,11 +1246,11 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1244,8 +1264,8 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1357,8 +1380,8 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>4</v>
+      <c r="Z15" s="3">
+        <v>0</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>4</v>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1419,9 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1405,25 +1432,25 @@
         <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
@@ -1432,16 +1459,16 @@
         <v>100</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
@@ -1450,7 +1477,7 @@
         <v>100</v>
       </c>
       <c r="U17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V17" s="3">
         <v>0</v>
@@ -1464,8 +1491,8 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>4</v>
+      <c r="Z17" s="3">
+        <v>0</v>
       </c>
       <c r="AA17" s="3" t="s">
         <v>4</v>
@@ -1473,8 +1500,11 @@
       <c r="AB17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1485,22 +1515,22 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1512,7 +1542,7 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
@@ -1521,7 +1551,7 @@
         <v>-200</v>
       </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
@@ -1530,7 +1560,7 @@
         <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V18" s="3">
         <v>0</v>
@@ -1544,8 +1574,8 @@
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>4</v>
+      <c r="Z18" s="3">
+        <v>0</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>4</v>
@@ -1553,8 +1583,11 @@
       <c r="AB18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1616,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,11 +1626,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1654,8 +1688,8 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>4</v>
+      <c r="Z20" s="3">
+        <v>0</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>4</v>
@@ -1663,8 +1697,11 @@
       <c r="AB20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1675,13 +1712,13 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
@@ -1743,8 +1780,11 @@
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,34 +1863,37 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
@@ -1865,22 +1908,22 @@
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>0</v>
@@ -1898,13 +1941,16 @@
         <v>0</v>
       </c>
       <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
         <v>100</v>
       </c>
-      <c r="AB23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,34 +2112,37 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
@@ -2105,22 +2157,22 @@
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>0</v>
@@ -2138,39 +2190,42 @@
         <v>0</v>
       </c>
       <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
         <v>100</v>
       </c>
-      <c r="AB26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
@@ -2185,22 +2240,22 @@
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>0</v>
@@ -2218,13 +2273,16 @@
         <v>0</v>
       </c>
       <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
         <v>100</v>
       </c>
-      <c r="AB27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2610,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2552,10 +2622,10 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2614,8 +2684,8 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>4</v>
+      <c r="Z32" s="3">
+        <v>0</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>4</v>
@@ -2623,34 +2693,37 @@
       <c r="AB32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
@@ -2665,22 +2738,22 @@
         <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>0</v>
@@ -2698,13 +2771,16 @@
         <v>0</v>
       </c>
       <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
         <v>100</v>
       </c>
-      <c r="AB33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,34 +2859,37 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
@@ -2825,22 +2904,22 @@
         <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>0</v>
@@ -2858,98 +2937,104 @@
         <v>0</v>
       </c>
       <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
         <v>100</v>
       </c>
-      <c r="AB35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3094,9 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3047,22 +3134,22 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
+      <c r="T41" s="3">
+        <v>0</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>4</v>
@@ -3070,8 +3157,8 @@
       <c r="V41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
+      <c r="W41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
@@ -3088,8 +3175,11 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3258,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3189,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -3201,16 +3294,16 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -3221,8 +3314,8 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
+      <c r="T43" s="3">
+        <v>0</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
@@ -3230,8 +3323,8 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
@@ -3248,58 +3341,61 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
         <v>500</v>
       </c>
       <c r="O44" s="3">
+        <v>500</v>
+      </c>
+      <c r="P44" s="3">
         <v>400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>200</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
+      <c r="S44" s="3">
+        <v>0</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>4</v>
@@ -3310,8 +3406,8 @@
       <c r="V44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W44" s="3">
-        <v>0</v>
+      <c r="W44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X44" s="3">
         <v>0</v>
@@ -3328,8 +3424,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3370,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>100</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
@@ -3390,8 +3489,8 @@
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -3408,17 +3507,20 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
@@ -3429,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
@@ -3441,28 +3543,28 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>500</v>
-      </c>
-      <c r="N46" s="3">
-        <v>600</v>
       </c>
       <c r="O46" s="3">
         <v>600</v>
       </c>
       <c r="P46" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
-      </c>
-      <c r="R46" s="3">
-        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
+      <c r="T46" s="3">
+        <v>100</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>4</v>
@@ -3470,8 +3572,8 @@
       <c r="V46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
+      <c r="W46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X46" s="3">
         <v>0</v>
@@ -3488,8 +3590,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3673,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3577,7 +3685,7 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -3589,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -3601,7 +3709,7 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
@@ -3612,8 +3720,8 @@
       <c r="P48" s="3">
         <v>200</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3">
+        <v>200</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
@@ -3630,8 +3738,8 @@
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
+      <c r="W48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X48" s="3">
         <v>0</v>
@@ -3648,8 +3756,11 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,16 +4005,19 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
@@ -3914,8 +4034,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3966,10 +4086,13 @@
         <v>0</v>
       </c>
       <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,22 +4171,25 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>100</v>
@@ -4072,7 +4198,7 @@
         <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>200</v>
@@ -4081,28 +4207,28 @@
         <v>200</v>
       </c>
       <c r="M54" s="3">
+        <v>200</v>
+      </c>
+      <c r="N54" s="3">
         <v>700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
-      </c>
-      <c r="R54" s="3">
-        <v>100</v>
       </c>
       <c r="S54" s="3">
         <v>100</v>
       </c>
       <c r="T54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U54" s="3">
         <v>0</v>
@@ -4126,10 +4252,13 @@
         <v>0</v>
       </c>
       <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4318,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4227,19 +4358,19 @@
         <v>0</v>
       </c>
       <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -4253,8 +4384,8 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>4</v>
+      <c r="X57" s="3">
+        <v>0</v>
       </c>
       <c r="Y57" s="3" t="s">
         <v>4</v>
@@ -4268,8 +4399,11 @@
       <c r="AB57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,22 +4482,25 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1900</v>
       </c>
       <c r="H59" s="3">
         <v>1900</v>
@@ -4375,49 +4512,49 @@
         <v>1900</v>
       </c>
       <c r="K59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1500</v>
       </c>
       <c r="N59" s="3">
         <v>1500</v>
       </c>
       <c r="O59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>100</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
       <c r="X59" s="3">
         <v>0</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
+      <c r="Y59" s="3">
+        <v>0</v>
       </c>
       <c r="Z59" s="3" t="s">
         <v>4</v>
@@ -4428,22 +4565,25 @@
       <c r="AB59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1900</v>
       </c>
       <c r="H60" s="3">
         <v>1900</v>
@@ -4455,49 +4595,49 @@
         <v>1900</v>
       </c>
       <c r="K60" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="L60" s="3">
         <v>1800</v>
       </c>
       <c r="M60" s="3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="N60" s="3">
         <v>1500</v>
       </c>
       <c r="O60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>400</v>
-      </c>
-      <c r="V60" s="3">
-        <v>100</v>
       </c>
       <c r="W60" s="3">
         <v>100</v>
       </c>
       <c r="X60" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>0</v>
       </c>
       <c r="Z60" s="3" t="s">
         <v>4</v>
@@ -4508,8 +4648,11 @@
       <c r="AB60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,28 +4731,31 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>100</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -4618,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -4627,14 +4773,14 @@
         <v>100</v>
       </c>
       <c r="O62" s="3">
+        <v>100</v>
+      </c>
+      <c r="P62" s="3">
         <v>200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4650,8 +4796,8 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4666,10 +4812,13 @@
         <v>0</v>
       </c>
       <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,22 +5063,25 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1600</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1700</v>
       </c>
       <c r="H66" s="3">
         <v>1700</v>
@@ -4938,7 +5096,7 @@
         <v>1700</v>
       </c>
       <c r="L66" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M66" s="3">
         <v>1600</v>
@@ -4950,31 +5108,31 @@
         <v>1600</v>
       </c>
       <c r="P66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>400</v>
-      </c>
-      <c r="V66" s="3">
-        <v>100</v>
       </c>
       <c r="W66" s="3">
         <v>100</v>
       </c>
       <c r="X66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y66" s="3">
         <v>0</v>
@@ -4986,10 +5144,13 @@
         <v>0</v>
       </c>
       <c r="AB66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,64 +5509,67 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-20000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-19900</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-19800</v>
       </c>
       <c r="G72" s="3">
         <v>-19800</v>
       </c>
       <c r="H72" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="I72" s="3">
         <v>-19700</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-19600</v>
       </c>
       <c r="J72" s="3">
         <v>-19600</v>
       </c>
       <c r="K72" s="3">
-        <v>-19500</v>
+        <v>-19600</v>
       </c>
       <c r="L72" s="3">
         <v>-19500</v>
       </c>
       <c r="M72" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="N72" s="3">
         <v>-19100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-18900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-18600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-18500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-18400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-18300</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-18200</v>
       </c>
       <c r="V72" s="3">
         <v>-18200</v>
@@ -5404,7 +5578,7 @@
         <v>-18200</v>
       </c>
       <c r="X72" s="3">
-        <v>-18100</v>
+        <v>-18200</v>
       </c>
       <c r="Y72" s="3">
         <v>-18100</v>
@@ -5416,10 +5590,13 @@
         <v>-18100</v>
       </c>
       <c r="AB72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,73 +5841,76 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1600</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-1700</v>
       </c>
       <c r="H76" s="3">
         <v>-1700</v>
       </c>
       <c r="I76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J76" s="3">
         <v>-1600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-1500</v>
       </c>
       <c r="K76" s="3">
         <v>-1500</v>
       </c>
       <c r="L76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="M76" s="3">
         <v>-1400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-400</v>
       </c>
-      <c r="V76" s="3">
-        <v>-100</v>
-      </c>
       <c r="W76" s="3">
         <v>-100</v>
       </c>
       <c r="X76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y76" s="3">
         <v>0</v>
@@ -5736,10 +5922,13 @@
         <v>0</v>
       </c>
       <c r="AB76" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,119 +6007,125 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
@@ -5945,22 +6140,22 @@
         <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>0</v>
@@ -5978,13 +6173,16 @@
         <v>0</v>
       </c>
       <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
         <v>100</v>
       </c>
-      <c r="AB81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6707,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6502,13 +6719,13 @@
         <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>-100</v>
-      </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -6520,29 +6737,29 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
-        <v>-100</v>
-      </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
@@ -6550,7 +6767,7 @@
         <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
@@ -6568,13 +6785,16 @@
         <v>0</v>
       </c>
       <c r="AA89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +6904,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7070,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7153,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,20 +7516,23 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -7300,28 +7546,28 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
-      </c>
-      <c r="R100" s="3">
-        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
@@ -7330,7 +7576,7 @@
         <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -7353,23 +7599,26 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -7403,8 +7652,8 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>4</v>
@@ -7415,8 +7664,8 @@
       <c r="V101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
+      <c r="W101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X101" s="3">
         <v>0</v>
@@ -7433,8 +7682,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7469,22 +7721,22 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>100</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
@@ -7508,9 +7760,12 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
     </row>
